--- a/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.24989106828452975</v>
+        <v>0.24989106717806414</v>
       </c>
       <c r="C2">
-        <v>0.21692466222378676</v>
+        <v>0.21692466212240075</v>
       </c>
       <c r="D2">
-        <v>2.1190897453503785</v>
+        <v>2.119089740255288</v>
       </c>
       <c r="E2">
-        <v>0.68978571468683991</v>
+        <v>0.6897857184400944</v>
       </c>
       <c r="F2">
-        <v>8.0261748134772759</v>
+        <v>8.0261747784996089</v>
       </c>
       <c r="G2">
-        <v>1.0568532690478647</v>
+        <v>1.0568532699072786</v>
       </c>
       <c r="H2">
-        <v>2.5267542192014427</v>
+        <v>2.5267542178730835</v>
       </c>
       <c r="I2">
-        <v>0.24894652515676041</v>
+        <v>0.24894652294801678</v>
       </c>
       <c r="J2">
-        <v>0.60600671670184691</v>
+        <v>0.60600671513542781</v>
       </c>
       <c r="K2">
-        <v>1.4184725636614708</v>
+        <v>1.4184725534291984</v>
       </c>
       <c r="L2">
-        <v>0.53941582843777591</v>
+        <v>0.53941583010291727</v>
       </c>
       <c r="M2">
-        <v>1.457747548846045</v>
+        <v>1.4577475473586128</v>
       </c>
       <c r="N2">
-        <v>0.50236545609000216</v>
+        <v>0.50236545427024826</v>
       </c>
       <c r="O2">
-        <v>0.91545548339837379</v>
+        <v>0.91545549064480769</v>
       </c>
       <c r="P2">
-        <v>0.39438794818445039</v>
+        <v>0.394387946219726</v>
       </c>
       <c r="Q2">
-        <v>0.5548143220451377</v>
+        <v>0.55481432229644556</v>
       </c>
       <c r="R2">
-        <v>1.6617924359870244</v>
+        <v>1.6617924319921875</v>
       </c>
       <c r="S2">
-        <v>9.2928938073008656</v>
+        <v>9.2928937737726756</v>
       </c>
       <c r="T2">
-        <v>10.66767094405628</v>
+        <v>10.667671006650441</v>
       </c>
       <c r="U2">
-        <v>0.85908512285093397</v>
+        <v>0.85908512053725494</v>
       </c>
       <c r="V2">
-        <v>8.8827372304372609</v>
+        <v>8.8827372019767274</v>
       </c>
       <c r="W2">
-        <v>0.58497957922806787</v>
+        <v>0.58497957225723674</v>
       </c>
       <c r="X2">
-        <v>0.13598913403699975</v>
+        <v>0.1359891340448624</v>
       </c>
       <c r="Y2">
-        <v>0.69052757525452357</v>
+        <v>0.69052758545643422</v>
       </c>
       <c r="AA2">
-        <v>0.42804333071640405</v>
+        <v>0.42804332988556448</v>
       </c>
       <c r="AB2">
-        <v>0.1761165525997633</v>
+        <v>0.17611655307644619</v>
       </c>
       <c r="AC2">
-        <v>2.3034030532031737</v>
+        <v>2.3034030568212711</v>
       </c>
       <c r="AD2">
-        <v>0.23086110378216565</v>
+        <v>0.23086110175599597</v>
       </c>
       <c r="AE2">
-        <v>1.672564109221081</v>
+        <v>1.6725640519551526</v>
       </c>
       <c r="AF2">
-        <v>1.0206517101843229</v>
+        <v>1.020651706749699</v>
       </c>
       <c r="AG2">
-        <v>1.1893952407891297</v>
+        <v>1.189395236519039</v>
       </c>
       <c r="AH2">
-        <v>0.20076019420353969</v>
+        <v>0.20076019324540856</v>
       </c>
       <c r="AI2">
-        <v>0.83217689200401668</v>
+        <v>0.83217689358260505</v>
       </c>
       <c r="AJ2">
-        <v>3.2888526851124182</v>
+        <v>3.2888526604948884</v>
       </c>
       <c r="AK2">
-        <v>0.57263995168060622</v>
+        <v>0.57263995036723159</v>
       </c>
       <c r="AL2">
-        <v>1.3906904396399189</v>
+        <v>1.3906904726850595</v>
       </c>
       <c r="AM2">
-        <v>0.17964049795491896</v>
+        <v>0.1796404977586899</v>
       </c>
       <c r="AN2">
-        <v>0.98377283433034179</v>
+        <v>0.98377283629348966</v>
       </c>
       <c r="AO2">
-        <v>1.0941943580244575</v>
+        <v>1.0941943583312932</v>
       </c>
       <c r="AP2">
-        <v>0.27768868002089014</v>
+        <v>0.27768867967889921</v>
       </c>
       <c r="AQ2">
-        <v>1.4749013330007812</v>
+        <v>1.4749013336491272</v>
       </c>
       <c r="AR2">
-        <v>0.51606222768043197</v>
+        <v>0.51606221470441727</v>
       </c>
       <c r="AS2">
-        <v>3.4498330885328023</v>
+        <v>3.4498329975924067</v>
       </c>
       <c r="AT2">
-        <v>0.82746036674222767</v>
+        <v>0.82746036659149524</v>
       </c>
       <c r="AU2">
-        <v>6.3044703573102447</v>
+        <v>6.3044703451077533</v>
       </c>
       <c r="AV2">
-        <v>0.30089331470019504</v>
+        <v>0.30089331276740233</v>
       </c>
       <c r="AW2">
-        <v>0.24347793237202658</v>
+        <v>0.24347793170799098</v>
       </c>
       <c r="AX2">
-        <v>0.36953064496832716</v>
+        <v>0.36953064476407654</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.66132264546609476</v>
+        <v>0.66132264512061734</v>
       </c>
       <c r="C3">
-        <v>0.25803218942121287</v>
+        <v>0.25803219060517218</v>
       </c>
       <c r="D3">
-        <v>1.3515683962210763</v>
+        <v>1.3515684030680497</v>
       </c>
       <c r="E3">
-        <v>1.4785463719506793</v>
+        <v>1.4785463941265018</v>
       </c>
       <c r="F3">
-        <v>0.91687304446169082</v>
+        <v>0.91687303879362481</v>
       </c>
       <c r="G3">
-        <v>1.0270027363970544</v>
+        <v>1.0270027341885926</v>
       </c>
       <c r="H3">
-        <v>2.7967687201359546</v>
+        <v>2.7967687204356659</v>
       </c>
       <c r="I3">
-        <v>0.77615164816421733</v>
+        <v>0.77615164424342287</v>
       </c>
       <c r="J3">
-        <v>0.88781236757936421</v>
+        <v>0.88781236586415724</v>
       </c>
       <c r="K3">
-        <v>3.7021135190520029</v>
+        <v>3.7021134651579373</v>
       </c>
       <c r="L3">
-        <v>1.170401388786438</v>
+        <v>1.1704013861180442</v>
       </c>
       <c r="M3">
-        <v>0.62547839811376893</v>
+        <v>0.62549167067410272</v>
       </c>
       <c r="N3">
-        <v>0.134209396678693</v>
+        <v>0.13420939667702694</v>
       </c>
       <c r="O3">
-        <v>1.8271309087642926</v>
+        <v>1.8271309109788068</v>
       </c>
       <c r="P3">
-        <v>0.26785451762150136</v>
+        <v>0.26785451457627352</v>
       </c>
       <c r="Q3">
-        <v>0.24797332258178492</v>
+        <v>0.24797332349317699</v>
       </c>
       <c r="R3">
-        <v>0.77217447741028167</v>
+        <v>0.77217448054328564</v>
       </c>
       <c r="S3">
-        <v>3.6290474706820732</v>
+        <v>3.6290474243915867</v>
       </c>
       <c r="T3">
-        <v>0.72503354079924587</v>
+        <v>0.72503354189978064</v>
       </c>
       <c r="U3">
-        <v>1.1831141517091672</v>
+        <v>1.1831141498857156</v>
       </c>
       <c r="V3">
-        <v>8.252716784285937</v>
+        <v>8.2527167177443648</v>
       </c>
       <c r="W3">
-        <v>0.15251157492789899</v>
+        <v>0.15251156704013799</v>
       </c>
       <c r="X3">
-        <v>0.30280160705630149</v>
+        <v>0.30280160555203145</v>
       </c>
       <c r="Y3">
-        <v>0.52214749823033413</v>
+        <v>0.52214749828608276</v>
       </c>
       <c r="AA3">
-        <v>0.36828324076624797</v>
+        <v>0.3682832408021201</v>
       </c>
       <c r="AB3">
-        <v>1.1150218942484702</v>
+        <v>1.1150218955282571</v>
       </c>
       <c r="AC3">
-        <v>5.1746585098578759</v>
+        <v>5.1746585076801495</v>
       </c>
       <c r="AD3">
-        <v>0.73852342265836324</v>
+        <v>0.73852341414374401</v>
       </c>
       <c r="AE3">
-        <v>0.4746461466002182</v>
+        <v>0.47464615218920425</v>
       </c>
       <c r="AF3">
-        <v>0.46119440527400268</v>
+        <v>0.46119440299742687</v>
       </c>
       <c r="AG3">
-        <v>1.1207826225628057</v>
+        <v>1.1207826158336822</v>
       </c>
       <c r="AH3">
-        <v>0.52492694630259462</v>
+        <v>0.52492695147088875</v>
       </c>
       <c r="AI3">
-        <v>0.94635699060336154</v>
+        <v>0.9463569900512685</v>
       </c>
       <c r="AJ3">
-        <v>3.8577975375362454</v>
+        <v>3.8577975413240706</v>
       </c>
       <c r="AK3">
-        <v>0.37221026424364378</v>
+        <v>0.37221026313500827</v>
       </c>
       <c r="AL3">
-        <v>1.0566042470887012</v>
+        <v>1.0566042473217392</v>
       </c>
       <c r="AM3">
-        <v>0.15082680818697097</v>
+        <v>0.1508268078743738</v>
       </c>
       <c r="AN3">
-        <v>1.2538360559327073</v>
+        <v>1.2538360540595634</v>
       </c>
       <c r="AO3">
-        <v>0.45753972795101394</v>
+        <v>0.45753972942497267</v>
       </c>
       <c r="AP3">
-        <v>0.16126809675118242</v>
+        <v>0.16126809683691296</v>
       </c>
       <c r="AQ3">
-        <v>1.4839519962820311</v>
+        <v>1.4839520140260758</v>
       </c>
       <c r="AR3">
-        <v>1.7736701243583599</v>
+        <v>1.7736701452470367</v>
       </c>
       <c r="AS3">
-        <v>1.4768147994783787</v>
+        <v>1.4768148309799831</v>
       </c>
       <c r="AT3">
-        <v>0.42274838151902028</v>
+        <v>0.42274838349476351</v>
       </c>
       <c r="AU3">
-        <v>8.469818755798455</v>
+        <v>8.4698187355678396</v>
       </c>
       <c r="AV3">
-        <v>0.21473039230565863</v>
+        <v>0.2147303911930642</v>
       </c>
       <c r="AW3">
-        <v>0.17708865782516905</v>
+        <v>0.17708865603280213</v>
       </c>
       <c r="AX3">
-        <v>0.79275236439062557</v>
+        <v>0.79275236385685854</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.24989106717806414</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.21692466212240075</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.119089740255288</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.6897857184400944</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8.0261747784996089</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.0568532699072786</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.5267542178730835</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.24894652294801678</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.60600671513542781</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.4184725534291984</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.53941583010291727</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.4577475473586128</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.50236545427024826</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.91545549064480769</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.394387946219726</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.55481432229644556</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.6617924319921875</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>9.2928937737726756</v>
@@ -585,55 +474,55 @@
         <v>0.69052758545643422</v>
       </c>
       <c r="AA2">
-        <v>0.42804332988556448</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.17611655307644619</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.3034030568212711</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.23086110175599597</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.6725640519551526</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.020651706749699</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.189395236519039</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.20076019324540856</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.83217689358260505</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.2888526604948884</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.57263995036723159</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>1.3906904726850595</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.1796404977586899</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.98377283629348966</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>1.0941943583312932</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.27768867967889921</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.4749013336491272</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.51606221470441727</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.36953064476407654</v>
       </c>
+      <c r="AY2">
+        <v>1.8964133764518347</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>0.66132264512061734</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.25803219060517218</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.3515684030680497</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1.4785463941265018</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.91687303879362481</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.0270027341885926</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.7967687204356659</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.77615164424342287</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.88781236586415724</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3.7021134651579373</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.1704013861180442</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.62549167067410272</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.13420939667702694</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.8271309109788068</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.26785451457627352</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.24797332349317699</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.77217448054328564</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.6290474243915867</v>
@@ -734,55 +623,55 @@
         <v>0.52214749828608276</v>
       </c>
       <c r="AA3">
-        <v>0.3682832408021201</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.1150218955282571</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>5.1746585076801495</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.73852341414374401</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.47464615218920425</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.46119440299742687</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.1207826158336822</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.52492695147088875</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.9463569900512685</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>3.8577975413240706</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.37221026313500827</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.0566042473217392</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.1508268078743738</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>1.2538360540595634</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.45753972942497267</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.16126809683691296</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.4839520140260758</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>1.7736701452470367</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>0.79275236385685854</v>
+      </c>
+      <c r="AY3">
+        <v>0.89220554342342417</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.24989106828452975</v>
+        <v>0.66045457039765831</v>
       </c>
       <c r="C2">
-        <v>0.21692466222378676</v>
+        <v>1.6617924319921875</v>
       </c>
       <c r="D2">
-        <v>2.0383258591927289</v>
+        <v>0.98377283629348966</v>
       </c>
       <c r="E2">
-        <v>0.68978571468683991</v>
+        <v>1.4749013336491272</v>
       </c>
       <c r="F2">
         <v>8.0261748134772759</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.66132264546609476</v>
+        <v>1.8271309109788068</v>
       </c>
       <c r="C3">
-        <v>0.25803218942121287</v>
+        <v>0.77217448054328564</v>
       </c>
       <c r="D3">
-        <v>1.3515683962210763</v>
+        <v>1.2538360540595634</v>
       </c>
       <c r="E3">
-        <v>1.4785463719506793</v>
+        <v>0.80953289967086539</v>
       </c>
       <c r="F3">
         <v>0.91687304446169082</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.24989106828452975</v>
-      </c>
       <c r="C2">
-        <v>0.21692466222378676</v>
+        <v>0.66045457039765831</v>
       </c>
       <c r="D2">
-        <v>2.0383258591927289</v>
+        <v>0.1796404977586899</v>
       </c>
       <c r="E2">
-        <v>0.68978571468683991</v>
+        <v>0.98377283629348966</v>
       </c>
       <c r="F2">
         <v>8.0261748134772759</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.66132264546609476</v>
+        <v>0.13420939667702694</v>
       </c>
       <c r="C3">
-        <v>0.25803218942121287</v>
+        <v>1.8271309109788068</v>
       </c>
       <c r="D3">
-        <v>1.3515683962210763</v>
+        <v>0.1508268078743738</v>
       </c>
       <c r="E3">
-        <v>1.4785463719506793</v>
+        <v>1.2538360540595634</v>
       </c>
       <c r="F3">
         <v>0.91687304446169082</v>

--- a/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gm_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.24989106717806414</v>
+      </c>
       <c r="C2">
+        <v>0.21692466212240075</v>
+      </c>
+      <c r="D2">
+        <v>2.0383258543993454</v>
+      </c>
+      <c r="E2">
+        <v>0.6897857184400944</v>
+      </c>
+      <c r="F2">
+        <v>8.0261747784996089</v>
+      </c>
+      <c r="G2">
+        <v>1.0568532699072786</v>
+      </c>
+      <c r="H2">
+        <v>2.5267542178730835</v>
+      </c>
+      <c r="I2">
+        <v>0.24894652294801678</v>
+      </c>
+      <c r="J2">
+        <v>0.60600671513542781</v>
+      </c>
+      <c r="K2">
+        <v>1.4184725534291984</v>
+      </c>
+      <c r="L2">
+        <v>0.53941583010291727</v>
+      </c>
+      <c r="M2">
+        <v>1.4577475473586128</v>
+      </c>
+      <c r="O2">
         <v>0.66045457039765831</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.394387946219726</v>
+      </c>
+      <c r="Q2">
+        <v>0.55481432229644556</v>
+      </c>
+      <c r="R2">
+        <v>1.6617924319921875</v>
+      </c>
+      <c r="S2">
+        <v>9.2928937737726756</v>
+      </c>
+      <c r="T2">
+        <v>8.7621118982106498</v>
+      </c>
+      <c r="U2">
+        <v>0.85908512053725494</v>
+      </c>
+      <c r="V2">
+        <v>8.8827372019767274</v>
+      </c>
+      <c r="W2">
+        <v>0.58497957225723674</v>
+      </c>
+      <c r="X2">
+        <v>0.1359891340448624</v>
+      </c>
+      <c r="Y2">
+        <v>0.65181613336179312</v>
+      </c>
+      <c r="AA2">
+        <v>0.42804332988556448</v>
+      </c>
+      <c r="AB2">
+        <v>0.17611655307645277</v>
+      </c>
+      <c r="AC2">
+        <v>2.3034030568212711</v>
+      </c>
+      <c r="AD2">
+        <v>0.23086110175599597</v>
+      </c>
+      <c r="AE2">
+        <v>1.6725640519551526</v>
+      </c>
+      <c r="AF2">
+        <v>1.020651706749699</v>
+      </c>
+      <c r="AG2">
+        <v>1.189395236519039</v>
+      </c>
+      <c r="AH2">
+        <v>0.28888853536975517</v>
+      </c>
+      <c r="AI2">
+        <v>0.83217689358260505</v>
+      </c>
+      <c r="AJ2">
+        <v>3.2888526604948884</v>
+      </c>
+      <c r="AK2">
+        <v>0.57263995036723159</v>
+      </c>
+      <c r="AL2">
+        <v>1.3906904726850595</v>
+      </c>
+      <c r="AM2">
         <v>0.1796404977586899</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.98377283629348966</v>
       </c>
-      <c r="F2">
-        <v>8.0261748134772759</v>
-      </c>
-      <c r="G2">
-        <v>1.0568532690478647</v>
-      </c>
-      <c r="H2">
-        <v>2.5267542192014427</v>
-      </c>
-      <c r="I2">
-        <v>0.24894652515676041</v>
-      </c>
-      <c r="J2">
-        <v>0.60600671670184691</v>
-      </c>
-      <c r="K2">
-        <v>1.4184725636614708</v>
-      </c>
-      <c r="L2">
-        <v>0.53941582843777591</v>
-      </c>
-      <c r="M2">
-        <v>1.457747548846045</v>
-      </c>
-      <c r="O2">
-        <v>0.66045456221467513</v>
-      </c>
-      <c r="P2">
-        <v>0.39438794818445039</v>
-      </c>
-      <c r="Q2">
-        <v>0.5548143220451377</v>
-      </c>
-      <c r="R2">
-        <v>1.6617924359870244</v>
-      </c>
-      <c r="S2">
-        <v>9.2928938073008656</v>
-      </c>
-      <c r="T2">
-        <v>8.7621118315689657</v>
-      </c>
-      <c r="U2">
-        <v>0.85908512285093397</v>
-      </c>
-      <c r="V2">
-        <v>8.8827372304372609</v>
-      </c>
-      <c r="W2">
-        <v>0.58497957922806787</v>
-      </c>
-      <c r="X2">
-        <v>0.13598913403699975</v>
-      </c>
-      <c r="Y2">
-        <v>0.65181613182474063</v>
-      </c>
-      <c r="AA2">
-        <v>0.42804333071640405</v>
-      </c>
-      <c r="AB2">
-        <v>0.17611655259976827</v>
-      </c>
-      <c r="AC2">
-        <v>2.3034030532031737</v>
-      </c>
-      <c r="AD2">
-        <v>0.23086110378216565</v>
-      </c>
-      <c r="AE2">
-        <v>1.672564109221081</v>
-      </c>
-      <c r="AF2">
-        <v>1.0206517101843229</v>
-      </c>
-      <c r="AG2">
-        <v>1.1893952407891297</v>
-      </c>
-      <c r="AH2">
-        <v>0.28888853840702866</v>
-      </c>
-      <c r="AI2">
-        <v>0.83217689200401668</v>
-      </c>
-      <c r="AJ2">
-        <v>3.2888526851124182</v>
-      </c>
-      <c r="AK2">
-        <v>0.57263995168060622</v>
-      </c>
-      <c r="AL2">
-        <v>1.3906904396399189</v>
-      </c>
-      <c r="AM2">
-        <v>0.17964049795491896</v>
-      </c>
-      <c r="AN2">
-        <v>0.98377283433034179</v>
-      </c>
       <c r="AO2">
-        <v>1.0941943580244575</v>
+        <v>1.0941943583312932</v>
       </c>
       <c r="AP2">
-        <v>0.23915827115172422</v>
+        <v>0.2391582724499127</v>
       </c>
       <c r="AQ2">
-        <v>1.4749013330007812</v>
+        <v>1.4749013336491272</v>
       </c>
       <c r="AR2">
-        <v>0.51606222768043197</v>
+        <v>0.51606221470441727</v>
       </c>
       <c r="AS2">
-        <v>3.4498330885328023</v>
+        <v>3.4498329975924067</v>
       </c>
       <c r="AT2">
-        <v>0.82746036674222767</v>
+        <v>0.82746036659149524</v>
       </c>
       <c r="AU2">
-        <v>6.3044703573102447</v>
+        <v>6.3044703451077533</v>
       </c>
       <c r="AV2">
-        <v>0.30089331470019504</v>
+        <v>0.30089331276740233</v>
       </c>
       <c r="AW2">
-        <v>0.24347793237202658</v>
+        <v>0.24347793170799098</v>
       </c>
       <c r="AX2">
-        <v>0.36953064496830529</v>
+        <v>0.36953064476411218</v>
       </c>
       <c r="AY2">
-        <v>1.8964133721312659</v>
+        <v>1.8964133764518347</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.66132264512061734</v>
+      </c>
+      <c r="C3">
+        <v>0.25803219060517218</v>
+      </c>
+      <c r="D3">
+        <v>1.3515684030680497</v>
+      </c>
+      <c r="E3">
+        <v>1.4785463941265018</v>
+      </c>
+      <c r="F3">
+        <v>0.91687303879362481</v>
+      </c>
+      <c r="G3">
+        <v>1.0270027341885926</v>
+      </c>
+      <c r="H3">
+        <v>2.7967687204356659</v>
+      </c>
+      <c r="I3">
+        <v>1.1016393942605569</v>
+      </c>
+      <c r="J3">
+        <v>0.88781236586415724</v>
+      </c>
+      <c r="K3">
+        <v>3.7021134651579373</v>
+      </c>
+      <c r="L3">
+        <v>1.1704013861180442</v>
+      </c>
+      <c r="M3">
+        <v>0.62549167067410272</v>
+      </c>
+      <c r="N3">
         <v>0.13420939667702694</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.8271309109788068</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.26785451457627352</v>
+      </c>
+      <c r="Q3">
+        <v>0.24797332349317699</v>
+      </c>
+      <c r="R3">
+        <v>0.77217448054328564</v>
+      </c>
+      <c r="S3">
+        <v>4.938108630852823</v>
+      </c>
+      <c r="T3">
+        <v>0.91358654655860649</v>
+      </c>
+      <c r="U3">
+        <v>1.1831141498857156</v>
+      </c>
+      <c r="V3">
+        <v>8.2527167177443648</v>
+      </c>
+      <c r="W3">
+        <v>0.13373126903093266</v>
+      </c>
+      <c r="X3">
+        <v>0.30280160555203145</v>
+      </c>
+      <c r="Y3">
+        <v>0.52214749828608276</v>
+      </c>
+      <c r="AA3">
+        <v>0.3682832408021201</v>
+      </c>
+      <c r="AB3">
+        <v>1.1150218955282571</v>
+      </c>
+      <c r="AC3">
+        <v>1.3719453867555411</v>
+      </c>
+      <c r="AD3">
+        <v>0.73852341414374401</v>
+      </c>
+      <c r="AE3">
+        <v>0.47464615218920425</v>
+      </c>
+      <c r="AF3">
+        <v>0.46119440299743025</v>
+      </c>
+      <c r="AG3">
+        <v>1.1207826158336822</v>
+      </c>
+      <c r="AH3">
+        <v>0.2005663223965099</v>
+      </c>
+      <c r="AI3">
+        <v>0.9463569900512685</v>
+      </c>
+      <c r="AJ3">
+        <v>3.8577975413240706</v>
+      </c>
+      <c r="AK3">
+        <v>0.37221026313500827</v>
+      </c>
+      <c r="AL3">
+        <v>1.0566042473217392</v>
+      </c>
+      <c r="AM3">
         <v>0.1508268078743738</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>1.2538360540595634</v>
       </c>
-      <c r="F3">
-        <v>0.91687304446169082</v>
-      </c>
-      <c r="G3">
-        <v>1.0270027363970544</v>
-      </c>
-      <c r="H3">
-        <v>2.7967687201359546</v>
-      </c>
-      <c r="I3">
-        <v>1.1016393998447671</v>
-      </c>
-      <c r="J3">
-        <v>0.88781236757936421</v>
-      </c>
-      <c r="K3">
-        <v>3.7021135190520029</v>
-      </c>
-      <c r="L3">
-        <v>1.170401388786438</v>
-      </c>
-      <c r="M3">
-        <v>0.62547839811376893</v>
-      </c>
-      <c r="N3">
-        <v>0.134209396678693</v>
-      </c>
-      <c r="O3">
-        <v>1.8271309087642926</v>
-      </c>
-      <c r="P3">
-        <v>0.26785451762150136</v>
-      </c>
-      <c r="Q3">
-        <v>0.24797332258178492</v>
-      </c>
-      <c r="R3">
-        <v>0.77217447741028167</v>
-      </c>
-      <c r="S3">
-        <v>4.9381087014723919</v>
-      </c>
-      <c r="T3">
-        <v>0.91358653348147223</v>
-      </c>
-      <c r="U3">
-        <v>1.1831141517091672</v>
-      </c>
-      <c r="V3">
-        <v>8.252716784285937</v>
-      </c>
-      <c r="W3">
-        <v>0.13373128465826817</v>
-      </c>
-      <c r="X3">
-        <v>0.30280160705630149</v>
-      </c>
-      <c r="Y3">
-        <v>0.52214749823033413</v>
-      </c>
-      <c r="AA3">
-        <v>0.36828324076624797</v>
-      </c>
-      <c r="AB3">
-        <v>1.1150218942484702</v>
-      </c>
-      <c r="AC3">
-        <v>1.3719453893103364</v>
-      </c>
-      <c r="AD3">
-        <v>0.73852342265836324</v>
-      </c>
-      <c r="AE3">
-        <v>0.4746461466002182</v>
-      </c>
-      <c r="AF3">
-        <v>0.4611944052739908</v>
-      </c>
-      <c r="AG3">
-        <v>1.1207826225628057</v>
-      </c>
-      <c r="AH3">
-        <v>0.20056631603862676</v>
-      </c>
-      <c r="AI3">
-        <v>0.94635699060336154</v>
-      </c>
-      <c r="AJ3">
-        <v>3.8577975375362454</v>
-      </c>
-      <c r="AK3">
-        <v>0.37221026424364378</v>
-      </c>
-      <c r="AL3">
-        <v>1.0566042470887012</v>
-      </c>
-      <c r="AM3">
-        <v>0.15082680818697097</v>
-      </c>
-      <c r="AN3">
-        <v>1.2538360559327073</v>
-      </c>
       <c r="AO3">
-        <v>0.45753972795101394</v>
+        <v>0.45753972942497267</v>
       </c>
       <c r="AP3">
-        <v>0.10631384554593903</v>
+        <v>0.10631384599971135</v>
       </c>
       <c r="AQ3">
-        <v>0.80953288864237893</v>
+        <v>0.80953289967086539</v>
       </c>
       <c r="AR3">
-        <v>1.7736701243583599</v>
+        <v>1.7736701452470367</v>
       </c>
       <c r="AS3">
-        <v>1.4768147994783787</v>
+        <v>1.4768148309799831</v>
       </c>
       <c r="AT3">
-        <v>0.42274838151902028</v>
+        <v>0.42274838349476351</v>
       </c>
       <c r="AU3">
-        <v>8.469818755798455</v>
+        <v>8.4698187355678396</v>
       </c>
       <c r="AV3">
-        <v>0.21473039230565863</v>
+        <v>0.2147303911930642</v>
       </c>
       <c r="AW3">
-        <v>0.17708865782516905</v>
+        <v>0.17708865603280213</v>
       </c>
       <c r="AX3">
-        <v>0.79275236439062557</v>
+        <v>0.79275236385685854</v>
       </c>
       <c r="AY3">
-        <v>0.89220555098426879</v>
+        <v>0.89220554342342417</v>
       </c>
     </row>
   </sheetData>
